--- a/doc/20160618友联热电电气巡检信息表（模板V2）.xlsx
+++ b/doc/20160618友联热电电气巡检信息表（模板V2）.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="110">
   <si>
     <t>序号</t>
   </si>
@@ -373,14 +373,6 @@
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>TME</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOR</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
     <t>化工</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
@@ -406,6 +398,18 @@
   </si>
   <si>
     <t>设备2</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他测量项</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通巡检项</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度测量项</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -2760,6 +2764,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2769,26 +2782,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="632">
@@ -3725,9 +3729,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3:B19"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3743,25 +3747,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
@@ -3805,32 +3809,32 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="13">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="22" t="s">
         <v>92</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>98</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J3" s="10" t="s">
         <v>74</v>
@@ -3846,18 +3850,18 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
       <c r="H4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J4" s="10" t="s">
         <v>74</v>
@@ -3873,18 +3877,18 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
       <c r="H5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J5" s="10" t="s">
         <v>74</v>
@@ -3900,18 +3904,18 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
       <c r="H6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J6" s="10" t="s">
         <v>74</v>
@@ -3927,18 +3931,18 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
       <c r="H7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J7" s="10" t="s">
         <v>74</v>
@@ -3954,18 +3958,18 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
       <c r="H8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J8" s="10" t="s">
         <v>74</v>
@@ -3981,18 +3985,18 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
       <c r="H9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>74</v>
@@ -4008,18 +4012,18 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
       <c r="H10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J10" s="10" t="s">
         <v>74</v>
@@ -4035,18 +4039,18 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
       <c r="H11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J11" s="10" t="s">
         <v>74</v>
@@ -4062,18 +4066,18 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
       <c r="H12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J12" s="10" t="s">
         <v>74</v>
@@ -4089,18 +4093,18 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
       <c r="H13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J13" s="10" t="s">
         <v>74</v>
@@ -4116,20 +4120,20 @@
       </c>
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17" t="s">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22" t="s">
         <v>90</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>76</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="J14" s="11">
         <v>100</v>
@@ -4145,18 +4149,18 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
       <c r="H15" s="2" t="s">
         <v>77</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="J15" s="10">
         <v>100</v>
@@ -4172,18 +4176,18 @@
       </c>
     </row>
     <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
       <c r="H16" s="2" t="s">
         <v>67</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="J16" s="10">
         <v>100</v>
@@ -4199,22 +4203,22 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="17" t="s">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="22" t="s">
         <v>91</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>68</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="J17" s="10">
         <v>100</v>
@@ -4230,18 +4234,18 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
       <c r="H18" s="2" t="s">
         <v>69</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="J18" s="10">
         <v>100</v>
@@ -4257,18 +4261,18 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
       <c r="H19" s="2" t="s">
         <v>70</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="J19" s="10">
         <v>100</v>
@@ -4284,32 +4288,32 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A20" s="13">
+      <c r="A20" s="16">
         <v>2</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="F20" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>105</v>
+      <c r="F20" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>103</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J20" s="10" t="s">
         <v>74</v>
@@ -4325,18 +4329,18 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
       <c r="H21" s="2" t="s">
         <v>23</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J21" s="10" t="s">
         <v>74</v>
@@ -4352,18 +4356,18 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
       <c r="H22" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J22" s="10" t="s">
         <v>74</v>
@@ -4379,47 +4383,47 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
       <c r="H23" s="2" t="s">
         <v>25</v>
       </c>
       <c r="I23" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="J23" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="K23" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="M23" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="G24" s="14"/>
+      <c r="G24" s="17"/>
       <c r="H24" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J24" s="10" t="s">
         <v>74</v>
@@ -4435,18 +4439,18 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
       <c r="H25" s="4" t="s">
         <v>27</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J25" s="10" t="s">
         <v>74</v>
@@ -4462,18 +4466,18 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
       <c r="H26" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J26" s="10" t="s">
         <v>74</v>
@@ -4489,32 +4493,32 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A27" s="13">
+      <c r="A27" s="16">
         <v>3</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" s="16" t="s">
         <v>104</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>106</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J27" s="10" t="s">
         <v>74</v>
@@ -4530,18 +4534,18 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
       <c r="H28" s="2" t="s">
         <v>23</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J28" s="10" t="s">
         <v>74</v>
@@ -4557,18 +4561,18 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
       <c r="H29" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J29" s="10" t="s">
         <v>74</v>
@@ -4584,20 +4588,20 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="G30" s="14"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="G30" s="17"/>
       <c r="H30" s="2" t="s">
         <v>25</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J30" s="10" t="s">
         <v>74</v>
@@ -4613,18 +4617,18 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
       <c r="H31" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J31" s="10" t="s">
         <v>74</v>
@@ -4640,20 +4644,20 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14" t="s">
-        <v>107</v>
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17" t="s">
+        <v>105</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>27</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J32" s="10" t="s">
         <v>74</v>
@@ -4669,59 +4673,59 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
       <c r="H33" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I33" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="M33" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A34" s="16">
+        <v>4</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F34" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="J33" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="K33" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="L33" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="M33" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A34" s="13">
-        <v>4</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>108</v>
+      <c r="G34" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J34" s="10" t="s">
         <v>74</v>
@@ -4737,18 +4741,18 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
       <c r="H35" s="2" t="s">
         <v>23</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J35" s="10" t="s">
         <v>74</v>
@@ -4764,20 +4768,20 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="G36" s="14"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G36" s="17"/>
       <c r="H36" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J36" s="10" t="s">
         <v>74</v>
@@ -4793,20 +4797,20 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14" t="s">
-        <v>106</v>
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17" t="s">
+        <v>104</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>25</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J37" s="10" t="s">
         <v>74</v>
@@ -4822,20 +4826,20 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="G38" s="14"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="G38" s="17"/>
       <c r="H38" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J38" s="10" t="s">
         <v>74</v>
@@ -4851,18 +4855,18 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
       <c r="H39" s="4" t="s">
         <v>27</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J39" s="10" t="s">
         <v>74</v>
@@ -4878,59 +4882,59 @@
       </c>
     </row>
     <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
       <c r="H40" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I40" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="K40" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="L40" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="M40" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A41" s="16">
+        <v>5</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F41" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="J40" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="K40" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="L40" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="M40" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A41" s="13">
-        <v>5</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>108</v>
+      <c r="G41" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J41" s="10" t="s">
         <v>74</v>
@@ -4946,18 +4950,18 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
       <c r="H42" s="2" t="s">
         <v>23</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J42" s="10" t="s">
         <v>74</v>
@@ -4973,18 +4977,18 @@
       </c>
     </row>
     <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
       <c r="H43" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J43" s="10" t="s">
         <v>74</v>
@@ -5000,20 +5004,20 @@
       </c>
     </row>
     <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14" t="s">
-        <v>105</v>
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17" t="s">
+        <v>103</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>25</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J44" s="10" t="s">
         <v>74</v>
@@ -5029,18 +5033,18 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
       <c r="H45" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J45" s="10" t="s">
         <v>74</v>
@@ -5056,20 +5060,20 @@
       </c>
     </row>
     <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14" t="s">
-        <v>107</v>
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17" t="s">
+        <v>105</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>27</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J46" s="10" t="s">
         <v>74</v>
@@ -5085,18 +5089,18 @@
       </c>
     </row>
     <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
+      <c r="A47" s="18"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
       <c r="H47" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J47" s="10" t="s">
         <v>74</v>
@@ -5112,30 +5116,30 @@
       </c>
     </row>
     <row r="48" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A48" s="13">
+      <c r="A48" s="16">
         <v>6</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="E48" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="F48" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="G48" s="13"/>
+      <c r="F48" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G48" s="16"/>
       <c r="H48" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J48" s="10" t="s">
         <v>74</v>
@@ -5151,18 +5155,18 @@
       </c>
     </row>
     <row r="49" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
+      <c r="A49" s="17"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
       <c r="H49" s="2" t="s">
         <v>33</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J49" s="10" t="s">
         <v>74</v>
@@ -5178,18 +5182,18 @@
       </c>
     </row>
     <row r="50" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
       <c r="H50" s="2" t="s">
         <v>34</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J50" s="10" t="s">
         <v>74</v>
@@ -5205,20 +5209,20 @@
       </c>
     </row>
     <row r="51" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A51" s="14"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="G51" s="14"/>
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="G51" s="17"/>
       <c r="H51" s="2" t="s">
         <v>35</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J51" s="10" t="s">
         <v>74</v>
@@ -5234,18 +5238,18 @@
       </c>
     </row>
     <row r="52" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A52" s="14"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
+      <c r="A52" s="17"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
       <c r="H52" s="2" t="s">
         <v>36</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J52" s="10" t="s">
         <v>74</v>
@@ -5261,47 +5265,47 @@
       </c>
     </row>
     <row r="53" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
+      <c r="A53" s="17"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
       <c r="H53" s="2" t="s">
         <v>37</v>
       </c>
       <c r="I53" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J53" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="K53" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="L53" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="M53" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A54" s="17"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="J53" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="K53" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="L53" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="M53" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A54" s="14"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="G54" s="14"/>
+      <c r="G54" s="17"/>
       <c r="H54" s="2" t="s">
         <v>38</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J54" s="10" t="s">
         <v>74</v>
@@ -5317,18 +5321,18 @@
       </c>
     </row>
     <row r="55" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
+      <c r="A55" s="17"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
       <c r="H55" s="2" t="s">
         <v>39</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J55" s="10" t="s">
         <v>74</v>
@@ -5344,18 +5348,18 @@
       </c>
     </row>
     <row r="56" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
       <c r="H56" s="2" t="s">
         <v>40</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J56" s="10" t="s">
         <v>74</v>
@@ -5371,18 +5375,18 @@
       </c>
     </row>
     <row r="57" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
+      <c r="A57" s="17"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
       <c r="H57" s="4" t="s">
         <v>41</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J57" s="10" t="s">
         <v>74</v>
@@ -5398,18 +5402,18 @@
       </c>
     </row>
     <row r="58" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
+      <c r="A58" s="17"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
       <c r="H58" s="4" t="s">
         <v>42</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J58" s="10" t="s">
         <v>74</v>
@@ -5425,18 +5429,18 @@
       </c>
     </row>
     <row r="59" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A59" s="15"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
+      <c r="A59" s="18"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
       <c r="H59" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J59" s="10" t="s">
         <v>74</v>
@@ -5452,32 +5456,32 @@
       </c>
     </row>
     <row r="60" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A60" s="13">
+      <c r="A60" s="16">
         <v>7</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C60" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="D60" s="13" t="s">
+      <c r="D60" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="E60" s="13" t="s">
+      <c r="E60" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="F60" s="13" t="s">
+      <c r="F60" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G60" s="19" t="s">
         <v>104</v>
-      </c>
-      <c r="G60" s="21" t="s">
-        <v>106</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>44</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J60" s="10" t="s">
         <v>74</v>
@@ -5493,18 +5497,18 @@
       </c>
     </row>
     <row r="61" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A61" s="14"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="22"/>
+      <c r="A61" s="17"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="20"/>
       <c r="H61" s="4" t="s">
         <v>45</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J61" s="10" t="s">
         <v>74</v>
@@ -5520,18 +5524,18 @@
       </c>
     </row>
     <row r="62" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A62" s="14"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="22"/>
+      <c r="A62" s="17"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="20"/>
       <c r="H62" s="4" t="s">
         <v>46</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J62" s="10" t="s">
         <v>74</v>
@@ -5547,18 +5551,18 @@
       </c>
     </row>
     <row r="63" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A63" s="14"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="22"/>
+      <c r="A63" s="17"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="20"/>
       <c r="H63" s="4" t="s">
         <v>47</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J63" s="10" t="s">
         <v>74</v>
@@ -5574,20 +5578,20 @@
       </c>
     </row>
     <row r="64" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A64" s="14"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="G64" s="22"/>
+      <c r="A64" s="17"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="G64" s="20"/>
       <c r="H64" s="4" t="s">
         <v>48</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J64" s="10" t="s">
         <v>74</v>
@@ -5603,18 +5607,18 @@
       </c>
     </row>
     <row r="65" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A65" s="14"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="22"/>
+      <c r="A65" s="17"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="20"/>
       <c r="H65" s="4" t="s">
         <v>49</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J65" s="10" t="s">
         <v>74</v>
@@ -5630,20 +5634,20 @@
       </c>
     </row>
     <row r="66" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A66" s="14"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14" t="s">
-        <v>108</v>
+      <c r="A66" s="17"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17" t="s">
+        <v>106</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>50</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J66" s="10" t="s">
         <v>74</v>
@@ -5659,47 +5663,47 @@
       </c>
     </row>
     <row r="67" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A67" s="14"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
+      <c r="A67" s="17"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
       <c r="H67" s="4" t="s">
         <v>51</v>
       </c>
       <c r="I67" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J67" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="K67" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="L67" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="M67" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A68" s="17"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="J67" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="K67" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="L67" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="M67" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A68" s="14"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="G68" s="14"/>
+      <c r="G68" s="17"/>
       <c r="H68" s="4" t="s">
         <v>52</v>
       </c>
       <c r="I68" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J68" s="10" t="s">
         <v>74</v>
@@ -5715,18 +5719,18 @@
       </c>
     </row>
     <row r="69" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A69" s="15"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
+      <c r="A69" s="18"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
       <c r="H69" s="4" t="s">
         <v>53</v>
       </c>
       <c r="I69" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J69" s="10" t="s">
         <v>74</v>
@@ -5742,32 +5746,32 @@
       </c>
     </row>
     <row r="70" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A70" s="18">
+      <c r="A70" s="13">
         <v>8</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="B70" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C70" s="18" t="s">
+      <c r="C70" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D70" s="18" t="s">
+      <c r="D70" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="E70" s="18" t="s">
+      <c r="E70" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F70" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="G70" s="18" t="s">
-        <v>105</v>
+      <c r="F70" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G70" s="13" t="s">
+        <v>103</v>
       </c>
       <c r="H70" s="6" t="s">
         <v>44</v>
       </c>
       <c r="I70" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J70" s="10" t="s">
         <v>74</v>
@@ -5783,18 +5787,18 @@
       </c>
     </row>
     <row r="71" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A71" s="19"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
       <c r="H71" s="4" t="s">
         <v>45</v>
       </c>
       <c r="I71" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J71" s="10" t="s">
         <v>74</v>
@@ -5810,18 +5814,18 @@
       </c>
     </row>
     <row r="72" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A72" s="19"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="19"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
       <c r="H72" s="4" t="s">
         <v>46</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J72" s="10" t="s">
         <v>74</v>
@@ -5837,18 +5841,18 @@
       </c>
     </row>
     <row r="73" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A73" s="19"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="19"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
       <c r="H73" s="4" t="s">
         <v>47</v>
       </c>
       <c r="I73" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J73" s="10" t="s">
         <v>74</v>
@@ -5864,18 +5868,18 @@
       </c>
     </row>
     <row r="74" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A74" s="19"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="19"/>
+      <c r="A74" s="14"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
       <c r="H74" s="4" t="s">
         <v>48</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J74" s="10" t="s">
         <v>74</v>
@@ -5891,20 +5895,20 @@
       </c>
     </row>
     <row r="75" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A75" s="19"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="G75" s="19"/>
+      <c r="A75" s="14"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G75" s="14"/>
       <c r="H75" s="4" t="s">
         <v>49</v>
       </c>
       <c r="I75" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J75" s="10" t="s">
         <v>74</v>
@@ -5920,18 +5924,18 @@
       </c>
     </row>
     <row r="76" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A76" s="19"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="19"/>
+      <c r="A76" s="14"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
       <c r="H76" s="4" t="s">
         <v>50</v>
       </c>
       <c r="I76" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J76" s="10" t="s">
         <v>74</v>
@@ -5947,20 +5951,20 @@
       </c>
     </row>
     <row r="77" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A77" s="19"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="19"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="19" t="s">
-        <v>107</v>
+      <c r="A77" s="14"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14" t="s">
+        <v>105</v>
       </c>
       <c r="H77" s="4" t="s">
         <v>51</v>
       </c>
       <c r="I77" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J77" s="10" t="s">
         <v>74</v>
@@ -5976,18 +5980,18 @@
       </c>
     </row>
     <row r="78" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A78" s="19"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="19"/>
-      <c r="F78" s="19"/>
-      <c r="G78" s="19"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
       <c r="H78" s="4" t="s">
         <v>52</v>
       </c>
       <c r="I78" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J78" s="10" t="s">
         <v>74</v>
@@ -6003,59 +6007,59 @@
       </c>
     </row>
     <row r="79" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A79" s="20"/>
-      <c r="B79" s="20"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="20"/>
-      <c r="G79" s="20"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
       <c r="H79" s="4" t="s">
         <v>53</v>
       </c>
       <c r="I79" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J79" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="K79" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="L79" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="M79" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A80" s="16">
+        <v>9</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F80" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="J79" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="K79" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="L79" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="M79" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A80" s="13">
-        <v>9</v>
-      </c>
-      <c r="B80" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C80" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D80" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E80" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F80" s="13" t="s">
+      <c r="G80" s="16" t="s">
         <v>103</v>
-      </c>
-      <c r="G80" s="13" t="s">
-        <v>105</v>
       </c>
       <c r="H80" s="4" t="s">
         <v>32</v>
       </c>
       <c r="I80" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J80" s="10" t="s">
         <v>74</v>
@@ -6071,18 +6075,18 @@
       </c>
     </row>
     <row r="81" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A81" s="14"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="14"/>
+      <c r="A81" s="17"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
       <c r="H81" s="4" t="s">
         <v>54</v>
       </c>
       <c r="I81" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J81" s="10" t="s">
         <v>74</v>
@@ -6098,18 +6102,18 @@
       </c>
     </row>
     <row r="82" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A82" s="14"/>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c r="G82" s="14"/>
+      <c r="A82" s="17"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
       <c r="H82" s="4" t="s">
         <v>55</v>
       </c>
       <c r="I82" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J82" s="10" t="s">
         <v>74</v>
@@ -6125,18 +6129,18 @@
       </c>
     </row>
     <row r="83" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A83" s="14"/>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c r="G83" s="14"/>
+      <c r="A83" s="17"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
       <c r="H83" s="2" t="s">
         <v>56</v>
       </c>
       <c r="I83" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J83" s="10" t="s">
         <v>74</v>
@@ -6152,18 +6156,18 @@
       </c>
     </row>
     <row r="84" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A84" s="14"/>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="14"/>
+      <c r="A84" s="17"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
       <c r="H84" s="2" t="s">
         <v>57</v>
       </c>
       <c r="I84" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J84" s="10" t="s">
         <v>74</v>
@@ -6179,20 +6183,20 @@
       </c>
     </row>
     <row r="85" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A85" s="14"/>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="G85" s="14"/>
+      <c r="A85" s="17"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G85" s="17"/>
       <c r="H85" s="2" t="s">
         <v>58</v>
       </c>
       <c r="I85" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J85" s="10" t="s">
         <v>74</v>
@@ -6208,18 +6212,18 @@
       </c>
     </row>
     <row r="86" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A86" s="14"/>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="14"/>
+      <c r="A86" s="17"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
       <c r="H86" s="2" t="s">
         <v>59</v>
       </c>
       <c r="I86" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J86" s="10" t="s">
         <v>74</v>
@@ -6235,18 +6239,18 @@
       </c>
     </row>
     <row r="87" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A87" s="14"/>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14"/>
+      <c r="A87" s="17"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
       <c r="H87" s="2" t="s">
         <v>60</v>
       </c>
       <c r="I87" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J87" s="10" t="s">
         <v>74</v>
@@ -6262,18 +6266,18 @@
       </c>
     </row>
     <row r="88" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A88" s="14"/>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c r="G88" s="14"/>
+      <c r="A88" s="17"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
       <c r="H88" s="2" t="s">
         <v>61</v>
       </c>
       <c r="I88" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J88" s="10" t="s">
         <v>74</v>
@@ -6289,20 +6293,20 @@
       </c>
     </row>
     <row r="89" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A89" s="14"/>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c r="G89" s="14" t="s">
-        <v>108</v>
+      <c r="A89" s="17"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17" t="s">
+        <v>106</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>62</v>
       </c>
       <c r="I89" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J89" s="10" t="s">
         <v>74</v>
@@ -6318,18 +6322,18 @@
       </c>
     </row>
     <row r="90" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A90" s="14"/>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c r="G90" s="14"/>
+      <c r="A90" s="17"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="17"/>
       <c r="H90" s="2" t="s">
         <v>63</v>
       </c>
       <c r="I90" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J90" s="10" t="s">
         <v>74</v>
@@ -6345,18 +6349,18 @@
       </c>
     </row>
     <row r="91" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A91" s="15"/>
-      <c r="B91" s="15"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="15"/>
-      <c r="F91" s="15"/>
-      <c r="G91" s="15"/>
+      <c r="A91" s="18"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="18"/>
       <c r="H91" s="2" t="s">
         <v>64</v>
       </c>
       <c r="I91" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J91" s="10" t="s">
         <v>74</v>
@@ -6372,32 +6376,32 @@
       </c>
     </row>
     <row r="92" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A92" s="13">
+      <c r="A92" s="16">
         <v>10</v>
       </c>
-      <c r="B92" s="18" t="s">
+      <c r="B92" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C92" s="18" t="s">
+      <c r="C92" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D92" s="18" t="s">
+      <c r="D92" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="E92" s="18" t="s">
+      <c r="E92" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F92" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="G92" s="18" t="s">
-        <v>107</v>
+      <c r="F92" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G92" s="13" t="s">
+        <v>105</v>
       </c>
       <c r="H92" s="5" t="s">
         <v>32</v>
       </c>
       <c r="I92" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J92" s="10" t="s">
         <v>74</v>
@@ -6413,18 +6417,18 @@
       </c>
     </row>
     <row r="93" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A93" s="14"/>
-      <c r="B93" s="19"/>
-      <c r="C93" s="19"/>
-      <c r="D93" s="19"/>
-      <c r="E93" s="19"/>
-      <c r="F93" s="19"/>
-      <c r="G93" s="19"/>
+      <c r="A93" s="17"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c r="G93" s="14"/>
       <c r="H93" s="2" t="s">
         <v>45</v>
       </c>
       <c r="I93" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J93" s="10" t="s">
         <v>74</v>
@@ -6440,18 +6444,18 @@
       </c>
     </row>
     <row r="94" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A94" s="14"/>
-      <c r="B94" s="19"/>
-      <c r="C94" s="19"/>
-      <c r="D94" s="19"/>
-      <c r="E94" s="19"/>
-      <c r="F94" s="19"/>
-      <c r="G94" s="19"/>
+      <c r="A94" s="17"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c r="G94" s="14"/>
       <c r="H94" s="2" t="s">
         <v>34</v>
       </c>
       <c r="I94" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J94" s="10" t="s">
         <v>74</v>
@@ -6467,18 +6471,18 @@
       </c>
     </row>
     <row r="95" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A95" s="14"/>
-      <c r="B95" s="19"/>
-      <c r="C95" s="19"/>
-      <c r="D95" s="19"/>
-      <c r="E95" s="19"/>
-      <c r="F95" s="19"/>
-      <c r="G95" s="19"/>
+      <c r="A95" s="17"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c r="G95" s="14"/>
       <c r="H95" s="2" t="s">
         <v>35</v>
       </c>
       <c r="I95" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J95" s="10" t="s">
         <v>74</v>
@@ -6494,18 +6498,18 @@
       </c>
     </row>
     <row r="96" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A96" s="14"/>
-      <c r="B96" s="19"/>
-      <c r="C96" s="19"/>
-      <c r="D96" s="19"/>
-      <c r="E96" s="19"/>
-      <c r="F96" s="19"/>
-      <c r="G96" s="19"/>
+      <c r="A96" s="17"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="14"/>
       <c r="H96" s="2" t="s">
         <v>36</v>
       </c>
       <c r="I96" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J96" s="10" t="s">
         <v>74</v>
@@ -6521,18 +6525,18 @@
       </c>
     </row>
     <row r="97" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A97" s="14"/>
-      <c r="B97" s="19"/>
-      <c r="C97" s="19"/>
-      <c r="D97" s="19"/>
-      <c r="E97" s="19"/>
-      <c r="F97" s="19"/>
-      <c r="G97" s="19"/>
+      <c r="A97" s="17"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="14"/>
       <c r="H97" s="2" t="s">
         <v>37</v>
       </c>
       <c r="I97" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J97" s="10" t="s">
         <v>74</v>
@@ -6548,47 +6552,47 @@
       </c>
     </row>
     <row r="98" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A98" s="14"/>
-      <c r="B98" s="19"/>
-      <c r="C98" s="19"/>
-      <c r="D98" s="19"/>
-      <c r="E98" s="19"/>
-      <c r="F98" s="19"/>
-      <c r="G98" s="19"/>
+      <c r="A98" s="17"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="14"/>
       <c r="H98" s="2" t="s">
         <v>38</v>
       </c>
       <c r="I98" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J98" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="K98" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="L98" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="M98" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A99" s="17"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="J98" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="K98" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="L98" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="M98" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A99" s="14"/>
-      <c r="B99" s="19"/>
-      <c r="C99" s="19"/>
-      <c r="D99" s="19"/>
-      <c r="E99" s="19"/>
-      <c r="F99" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="G99" s="19"/>
+      <c r="G99" s="14"/>
       <c r="H99" s="2" t="s">
         <v>39</v>
       </c>
       <c r="I99" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J99" s="10" t="s">
         <v>74</v>
@@ -6604,18 +6608,18 @@
       </c>
     </row>
     <row r="100" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A100" s="14"/>
-      <c r="B100" s="19"/>
-      <c r="C100" s="19"/>
-      <c r="D100" s="19"/>
-      <c r="E100" s="19"/>
-      <c r="F100" s="19"/>
-      <c r="G100" s="19"/>
+      <c r="A100" s="17"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="14"/>
       <c r="H100" s="2" t="s">
         <v>40</v>
       </c>
       <c r="I100" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J100" s="10" t="s">
         <v>74</v>
@@ -6631,20 +6635,20 @@
       </c>
     </row>
     <row r="101" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A101" s="14"/>
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
-      <c r="D101" s="19"/>
-      <c r="E101" s="19"/>
-      <c r="F101" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="G101" s="19"/>
+      <c r="A101" s="17"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G101" s="14"/>
       <c r="H101" s="4" t="s">
         <v>41</v>
       </c>
       <c r="I101" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J101" s="10" t="s">
         <v>74</v>
@@ -6660,20 +6664,20 @@
       </c>
     </row>
     <row r="102" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A102" s="14"/>
-      <c r="B102" s="19"/>
-      <c r="C102" s="19"/>
-      <c r="D102" s="19"/>
-      <c r="E102" s="19"/>
-      <c r="F102" s="19"/>
-      <c r="G102" s="19" t="s">
-        <v>108</v>
+      <c r="A102" s="17"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c r="G102" s="14" t="s">
+        <v>106</v>
       </c>
       <c r="H102" s="4" t="s">
         <v>42</v>
       </c>
       <c r="I102" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J102" s="10" t="s">
         <v>74</v>
@@ -6689,18 +6693,18 @@
       </c>
     </row>
     <row r="103" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A103" s="14"/>
-      <c r="B103" s="19"/>
-      <c r="C103" s="19"/>
-      <c r="D103" s="19"/>
-      <c r="E103" s="19"/>
-      <c r="F103" s="19"/>
-      <c r="G103" s="19"/>
+      <c r="A103" s="17"/>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c r="G103" s="14"/>
       <c r="H103" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I103" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J103" s="10" t="s">
         <v>74</v>
@@ -6716,18 +6720,18 @@
       </c>
     </row>
     <row r="104" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A104" s="14"/>
-      <c r="B104" s="19"/>
-      <c r="C104" s="19"/>
-      <c r="D104" s="19"/>
-      <c r="E104" s="19"/>
-      <c r="F104" s="19"/>
-      <c r="G104" s="19"/>
+      <c r="A104" s="17"/>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c r="G104" s="14"/>
       <c r="H104" s="4" t="s">
         <v>65</v>
       </c>
       <c r="I104" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J104" s="10" t="s">
         <v>74</v>
@@ -6743,18 +6747,18 @@
       </c>
     </row>
     <row r="105" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A105" s="15"/>
-      <c r="B105" s="20"/>
-      <c r="C105" s="20"/>
-      <c r="D105" s="20"/>
-      <c r="E105" s="20"/>
-      <c r="F105" s="20"/>
-      <c r="G105" s="20"/>
+      <c r="A105" s="18"/>
+      <c r="B105" s="15"/>
+      <c r="C105" s="15"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="15"/>
+      <c r="G105" s="15"/>
       <c r="H105" s="4" t="s">
         <v>66</v>
       </c>
       <c r="I105" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J105" s="10" t="s">
         <v>74</v>
@@ -6770,32 +6774,32 @@
       </c>
     </row>
     <row r="106" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A106" s="13">
+      <c r="A106" s="16">
         <v>11</v>
       </c>
-      <c r="B106" s="18" t="s">
+      <c r="B106" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C106" s="18" t="s">
+      <c r="C106" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D106" s="18" t="s">
+      <c r="D106" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="E106" s="18" t="s">
+      <c r="E106" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F106" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="G106" s="18" t="s">
-        <v>106</v>
+      <c r="F106" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G106" s="13" t="s">
+        <v>104</v>
       </c>
       <c r="H106" s="6" t="s">
         <v>44</v>
       </c>
       <c r="I106" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J106" s="10" t="s">
         <v>74</v>
@@ -6811,18 +6815,18 @@
       </c>
     </row>
     <row r="107" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A107" s="14"/>
-      <c r="B107" s="19"/>
-      <c r="C107" s="19"/>
-      <c r="D107" s="19"/>
-      <c r="E107" s="19"/>
-      <c r="F107" s="19"/>
-      <c r="G107" s="19"/>
+      <c r="A107" s="17"/>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c r="G107" s="14"/>
       <c r="H107" s="4" t="s">
         <v>45</v>
       </c>
       <c r="I107" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J107" s="10" t="s">
         <v>74</v>
@@ -6838,18 +6842,18 @@
       </c>
     </row>
     <row r="108" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A108" s="14"/>
-      <c r="B108" s="19"/>
-      <c r="C108" s="19"/>
-      <c r="D108" s="19"/>
-      <c r="E108" s="19"/>
-      <c r="F108" s="19"/>
-      <c r="G108" s="19"/>
+      <c r="A108" s="17"/>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c r="G108" s="14"/>
       <c r="H108" s="4" t="s">
         <v>46</v>
       </c>
       <c r="I108" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J108" s="10" t="s">
         <v>74</v>
@@ -6865,20 +6869,20 @@
       </c>
     </row>
     <row r="109" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A109" s="14"/>
-      <c r="B109" s="19"/>
-      <c r="C109" s="19"/>
-      <c r="D109" s="19"/>
-      <c r="E109" s="19"/>
-      <c r="F109" s="19"/>
-      <c r="G109" s="19" t="s">
-        <v>105</v>
+      <c r="A109" s="17"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c r="G109" s="14" t="s">
+        <v>103</v>
       </c>
       <c r="H109" s="4" t="s">
         <v>47</v>
       </c>
       <c r="I109" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J109" s="10" t="s">
         <v>74</v>
@@ -6894,18 +6898,18 @@
       </c>
     </row>
     <row r="110" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A110" s="14"/>
-      <c r="B110" s="19"/>
-      <c r="C110" s="19"/>
-      <c r="D110" s="19"/>
-      <c r="E110" s="19"/>
-      <c r="F110" s="19"/>
-      <c r="G110" s="19"/>
+      <c r="A110" s="17"/>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c r="G110" s="14"/>
       <c r="H110" s="4" t="s">
         <v>48</v>
       </c>
       <c r="I110" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J110" s="10" t="s">
         <v>74</v>
@@ -6921,18 +6925,18 @@
       </c>
     </row>
     <row r="111" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A111" s="14"/>
-      <c r="B111" s="19"/>
-      <c r="C111" s="19"/>
-      <c r="D111" s="19"/>
-      <c r="E111" s="19"/>
-      <c r="F111" s="19"/>
-      <c r="G111" s="19"/>
+      <c r="A111" s="17"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c r="G111" s="14"/>
       <c r="H111" s="4" t="s">
         <v>49</v>
       </c>
       <c r="I111" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J111" s="10" t="s">
         <v>74</v>
@@ -6948,18 +6952,18 @@
       </c>
     </row>
     <row r="112" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A112" s="14"/>
-      <c r="B112" s="19"/>
-      <c r="C112" s="19"/>
-      <c r="D112" s="19"/>
-      <c r="E112" s="19"/>
-      <c r="F112" s="19"/>
-      <c r="G112" s="19"/>
+      <c r="A112" s="17"/>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c r="G112" s="14"/>
       <c r="H112" s="4" t="s">
         <v>50</v>
       </c>
       <c r="I112" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J112" s="10" t="s">
         <v>74</v>
@@ -6975,49 +6979,49 @@
       </c>
     </row>
     <row r="113" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A113" s="14"/>
-      <c r="B113" s="19"/>
-      <c r="C113" s="19"/>
-      <c r="D113" s="19"/>
-      <c r="E113" s="19"/>
-      <c r="F113" s="19"/>
-      <c r="G113" s="19"/>
+      <c r="A113" s="17"/>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c r="G113" s="14"/>
       <c r="H113" s="4" t="s">
         <v>51</v>
       </c>
       <c r="I113" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J113" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="K113" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="L113" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="M113" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A114" s="17"/>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="J113" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="K113" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="L113" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="M113" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A114" s="14"/>
-      <c r="B114" s="19"/>
-      <c r="C114" s="19"/>
-      <c r="D114" s="19"/>
-      <c r="E114" s="19"/>
-      <c r="F114" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="G114" s="19" t="s">
-        <v>108</v>
+      <c r="G114" s="14" t="s">
+        <v>106</v>
       </c>
       <c r="H114" s="4" t="s">
         <v>52</v>
       </c>
       <c r="I114" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J114" s="10" t="s">
         <v>74</v>
@@ -7033,18 +7037,18 @@
       </c>
     </row>
     <row r="115" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A115" s="15"/>
-      <c r="B115" s="20"/>
-      <c r="C115" s="20"/>
-      <c r="D115" s="20"/>
-      <c r="E115" s="20"/>
-      <c r="F115" s="20"/>
-      <c r="G115" s="20"/>
+      <c r="A115" s="18"/>
+      <c r="B115" s="15"/>
+      <c r="C115" s="15"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="15"/>
+      <c r="G115" s="15"/>
       <c r="H115" s="4" t="s">
         <v>53</v>
       </c>
       <c r="I115" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J115" s="10" t="s">
         <v>74</v>
@@ -7060,32 +7064,32 @@
       </c>
     </row>
     <row r="116" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A116" s="13">
+      <c r="A116" s="16">
         <v>12</v>
       </c>
-      <c r="B116" s="18" t="s">
+      <c r="B116" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C116" s="18" t="s">
+      <c r="C116" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D116" s="18" t="s">
+      <c r="D116" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="E116" s="18" t="s">
+      <c r="E116" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F116" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="G116" s="18" t="s">
-        <v>105</v>
+      <c r="F116" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G116" s="13" t="s">
+        <v>103</v>
       </c>
       <c r="H116" s="6" t="s">
         <v>44</v>
       </c>
       <c r="I116" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J116" s="10" t="s">
         <v>74</v>
@@ -7101,18 +7105,18 @@
       </c>
     </row>
     <row r="117" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A117" s="14"/>
-      <c r="B117" s="19"/>
-      <c r="C117" s="19"/>
-      <c r="D117" s="19"/>
-      <c r="E117" s="19"/>
-      <c r="F117" s="19"/>
-      <c r="G117" s="19"/>
+      <c r="A117" s="17"/>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c r="G117" s="14"/>
       <c r="H117" s="4" t="s">
         <v>45</v>
       </c>
       <c r="I117" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J117" s="10" t="s">
         <v>74</v>
@@ -7128,18 +7132,18 @@
       </c>
     </row>
     <row r="118" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A118" s="14"/>
-      <c r="B118" s="19"/>
-      <c r="C118" s="19"/>
-      <c r="D118" s="19"/>
-      <c r="E118" s="19"/>
-      <c r="F118" s="19"/>
-      <c r="G118" s="19"/>
+      <c r="A118" s="17"/>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c r="G118" s="14"/>
       <c r="H118" s="4" t="s">
         <v>46</v>
       </c>
       <c r="I118" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J118" s="10" t="s">
         <v>74</v>
@@ -7155,18 +7159,18 @@
       </c>
     </row>
     <row r="119" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A119" s="14"/>
-      <c r="B119" s="19"/>
-      <c r="C119" s="19"/>
-      <c r="D119" s="19"/>
-      <c r="E119" s="19"/>
-      <c r="F119" s="19"/>
-      <c r="G119" s="19"/>
+      <c r="A119" s="17"/>
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c r="G119" s="14"/>
       <c r="H119" s="4" t="s">
         <v>47</v>
       </c>
       <c r="I119" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J119" s="10" t="s">
         <v>74</v>
@@ -7182,18 +7186,18 @@
       </c>
     </row>
     <row r="120" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A120" s="14"/>
-      <c r="B120" s="19"/>
-      <c r="C120" s="19"/>
-      <c r="D120" s="19"/>
-      <c r="E120" s="19"/>
-      <c r="F120" s="19"/>
-      <c r="G120" s="19"/>
+      <c r="A120" s="17"/>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c r="G120" s="14"/>
       <c r="H120" s="4" t="s">
         <v>48</v>
       </c>
       <c r="I120" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J120" s="10" t="s">
         <v>74</v>
@@ -7209,20 +7213,20 @@
       </c>
     </row>
     <row r="121" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A121" s="14"/>
-      <c r="B121" s="19"/>
-      <c r="C121" s="19"/>
-      <c r="D121" s="19"/>
-      <c r="E121" s="19"/>
-      <c r="F121" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="G121" s="19"/>
+      <c r="A121" s="17"/>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G121" s="14"/>
       <c r="H121" s="4" t="s">
         <v>49</v>
       </c>
       <c r="I121" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J121" s="10" t="s">
         <v>74</v>
@@ -7238,20 +7242,20 @@
       </c>
     </row>
     <row r="122" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A122" s="14"/>
-      <c r="B122" s="19"/>
-      <c r="C122" s="19"/>
-      <c r="D122" s="19"/>
-      <c r="E122" s="19"/>
-      <c r="F122" s="19"/>
-      <c r="G122" s="19" t="s">
-        <v>107</v>
+      <c r="A122" s="17"/>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c r="G122" s="14" t="s">
+        <v>105</v>
       </c>
       <c r="H122" s="4" t="s">
         <v>50</v>
       </c>
       <c r="I122" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J122" s="10" t="s">
         <v>74</v>
@@ -7267,18 +7271,18 @@
       </c>
     </row>
     <row r="123" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A123" s="14"/>
-      <c r="B123" s="19"/>
-      <c r="C123" s="19"/>
-      <c r="D123" s="19"/>
-      <c r="E123" s="19"/>
-      <c r="F123" s="19"/>
-      <c r="G123" s="19"/>
+      <c r="A123" s="17"/>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c r="G123" s="14"/>
       <c r="H123" s="4" t="s">
         <v>51</v>
       </c>
       <c r="I123" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J123" s="10" t="s">
         <v>74</v>
@@ -7294,18 +7298,18 @@
       </c>
     </row>
     <row r="124" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A124" s="14"/>
-      <c r="B124" s="19"/>
-      <c r="C124" s="19"/>
-      <c r="D124" s="19"/>
-      <c r="E124" s="19"/>
-      <c r="F124" s="19"/>
-      <c r="G124" s="19"/>
+      <c r="A124" s="17"/>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c r="G124" s="14"/>
       <c r="H124" s="4" t="s">
         <v>52</v>
       </c>
       <c r="I124" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J124" s="10" t="s">
         <v>74</v>
@@ -7321,18 +7325,18 @@
       </c>
     </row>
     <row r="125" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A125" s="15"/>
-      <c r="B125" s="20"/>
-      <c r="C125" s="20"/>
-      <c r="D125" s="20"/>
-      <c r="E125" s="20"/>
-      <c r="F125" s="20"/>
-      <c r="G125" s="20"/>
+      <c r="A125" s="18"/>
+      <c r="B125" s="15"/>
+      <c r="C125" s="15"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="15"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="15"/>
       <c r="H125" s="4" t="s">
         <v>53</v>
       </c>
       <c r="I125" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J125" s="10" t="s">
         <v>74</v>
@@ -7349,44 +7353,59 @@
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="F116:F120"/>
-    <mergeCell ref="F121:F125"/>
-    <mergeCell ref="G116:G121"/>
-    <mergeCell ref="G122:G125"/>
-    <mergeCell ref="F106:F113"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="G106:G108"/>
-    <mergeCell ref="G109:G113"/>
-    <mergeCell ref="G114:G115"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="F101:F105"/>
-    <mergeCell ref="G92:G96"/>
-    <mergeCell ref="G97:G101"/>
-    <mergeCell ref="G102:G105"/>
-    <mergeCell ref="F80:F84"/>
-    <mergeCell ref="F85:F91"/>
-    <mergeCell ref="G80:G88"/>
-    <mergeCell ref="G89:G91"/>
-    <mergeCell ref="F92:F98"/>
-    <mergeCell ref="F70:F74"/>
-    <mergeCell ref="F75:F79"/>
-    <mergeCell ref="G70:G76"/>
-    <mergeCell ref="G77:G79"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="F54:F59"/>
-    <mergeCell ref="G48:G59"/>
-    <mergeCell ref="F60:F63"/>
-    <mergeCell ref="F64:F67"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="G37:G40"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G60:G65"/>
-    <mergeCell ref="G66:G69"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:B26"/>
+    <mergeCell ref="C20:C26"/>
+    <mergeCell ref="D20:D26"/>
+    <mergeCell ref="E20:E26"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="B3:B19"/>
+    <mergeCell ref="C3:C19"/>
+    <mergeCell ref="D3:D19"/>
+    <mergeCell ref="E3:E19"/>
+    <mergeCell ref="A3:A19"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="G7:G13"/>
+    <mergeCell ref="F3:F16"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G20:G26"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:B40"/>
+    <mergeCell ref="C34:C40"/>
+    <mergeCell ref="D34:D40"/>
+    <mergeCell ref="E34:E40"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:B33"/>
+    <mergeCell ref="C27:C33"/>
+    <mergeCell ref="D27:D33"/>
+    <mergeCell ref="E27:E33"/>
+    <mergeCell ref="E41:E47"/>
+    <mergeCell ref="A48:A59"/>
+    <mergeCell ref="B48:B59"/>
+    <mergeCell ref="C48:C59"/>
+    <mergeCell ref="D48:D59"/>
+    <mergeCell ref="E48:E59"/>
+    <mergeCell ref="C41:C47"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:B47"/>
+    <mergeCell ref="D41:D47"/>
+    <mergeCell ref="C80:C91"/>
+    <mergeCell ref="D80:D91"/>
+    <mergeCell ref="E80:E91"/>
+    <mergeCell ref="A70:A79"/>
+    <mergeCell ref="B70:B79"/>
+    <mergeCell ref="C70:C79"/>
+    <mergeCell ref="D70:D79"/>
+    <mergeCell ref="E70:E79"/>
+    <mergeCell ref="A60:A69"/>
+    <mergeCell ref="B60:B69"/>
+    <mergeCell ref="C60:C69"/>
+    <mergeCell ref="D60:D69"/>
+    <mergeCell ref="E60:E69"/>
     <mergeCell ref="F27:F29"/>
     <mergeCell ref="G27:G31"/>
     <mergeCell ref="F30:F33"/>
@@ -7411,59 +7430,44 @@
     <mergeCell ref="F41:F47"/>
     <mergeCell ref="G41:G43"/>
     <mergeCell ref="G44:G45"/>
-    <mergeCell ref="C80:C91"/>
-    <mergeCell ref="D80:D91"/>
-    <mergeCell ref="E80:E91"/>
-    <mergeCell ref="A70:A79"/>
-    <mergeCell ref="B70:B79"/>
-    <mergeCell ref="C70:C79"/>
-    <mergeCell ref="D70:D79"/>
-    <mergeCell ref="E70:E79"/>
-    <mergeCell ref="A60:A69"/>
-    <mergeCell ref="B60:B69"/>
-    <mergeCell ref="C60:C69"/>
-    <mergeCell ref="D60:D69"/>
-    <mergeCell ref="E60:E69"/>
-    <mergeCell ref="E41:E47"/>
-    <mergeCell ref="A48:A59"/>
-    <mergeCell ref="B48:B59"/>
-    <mergeCell ref="C48:C59"/>
-    <mergeCell ref="D48:D59"/>
-    <mergeCell ref="E48:E59"/>
-    <mergeCell ref="C41:C47"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:B47"/>
-    <mergeCell ref="D41:D47"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:B40"/>
-    <mergeCell ref="C34:C40"/>
-    <mergeCell ref="D34:D40"/>
-    <mergeCell ref="E34:E40"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:B33"/>
-    <mergeCell ref="C27:C33"/>
-    <mergeCell ref="D27:D33"/>
-    <mergeCell ref="E27:E33"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:B26"/>
-    <mergeCell ref="C20:C26"/>
-    <mergeCell ref="D20:D26"/>
-    <mergeCell ref="E20:E26"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="B3:B19"/>
-    <mergeCell ref="C3:C19"/>
-    <mergeCell ref="D3:D19"/>
-    <mergeCell ref="E3:E19"/>
-    <mergeCell ref="A3:A19"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="G7:G13"/>
-    <mergeCell ref="F3:F16"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G20:G26"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="G37:G40"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G60:G65"/>
+    <mergeCell ref="G66:G69"/>
+    <mergeCell ref="F70:F74"/>
+    <mergeCell ref="F75:F79"/>
+    <mergeCell ref="G70:G76"/>
+    <mergeCell ref="G77:G79"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="F54:F59"/>
+    <mergeCell ref="G48:G59"/>
+    <mergeCell ref="F60:F63"/>
+    <mergeCell ref="F64:F67"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="F101:F105"/>
+    <mergeCell ref="G92:G96"/>
+    <mergeCell ref="G97:G101"/>
+    <mergeCell ref="G102:G105"/>
+    <mergeCell ref="F80:F84"/>
+    <mergeCell ref="F85:F91"/>
+    <mergeCell ref="G80:G88"/>
+    <mergeCell ref="G89:G91"/>
+    <mergeCell ref="F92:F98"/>
+    <mergeCell ref="F116:F120"/>
+    <mergeCell ref="F121:F125"/>
+    <mergeCell ref="G116:G121"/>
+    <mergeCell ref="G122:G125"/>
+    <mergeCell ref="F106:F113"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="G106:G108"/>
+    <mergeCell ref="G109:G113"/>
+    <mergeCell ref="G114:G115"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations count="1">

--- a/doc/20160618友联热电电气巡检信息表（模板V2）.xlsx
+++ b/doc/20160618友联热电电气巡检信息表（模板V2）.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="112">
   <si>
     <t>序号</t>
   </si>
@@ -410,6 +410,14 @@
   </si>
   <si>
     <t>温度测量项</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备C</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备D</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -2764,6 +2772,21 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2774,25 +2797,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="632">
@@ -3729,9 +3737,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3747,25 +3755,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
@@ -3809,25 +3817,25 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="16">
+      <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="17" t="s">
         <v>92</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -3850,13 +3858,13 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
       <c r="H4" s="2" t="s">
         <v>4</v>
       </c>
@@ -3877,13 +3885,13 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
       <c r="H5" s="2" t="s">
         <v>5</v>
       </c>
@@ -3904,13 +3912,13 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
       <c r="H6" s="2" t="s">
         <v>6</v>
       </c>
@@ -3931,13 +3939,13 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="2" t="s">
         <v>7</v>
       </c>
@@ -3958,13 +3966,13 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
       <c r="H8" s="2" t="s">
         <v>9</v>
       </c>
@@ -3985,13 +3993,13 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
       <c r="H9" s="2" t="s">
         <v>11</v>
       </c>
@@ -4012,13 +4020,13 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
       <c r="H10" s="2" t="s">
         <v>13</v>
       </c>
@@ -4039,13 +4047,13 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="2" t="s">
         <v>15</v>
       </c>
@@ -4066,13 +4074,13 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
       <c r="H12" s="2" t="s">
         <v>17</v>
       </c>
@@ -4093,13 +4101,13 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
       <c r="H13" s="2" t="s">
         <v>19</v>
       </c>
@@ -4120,13 +4128,13 @@
       </c>
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17" t="s">
         <v>90</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -4149,13 +4157,13 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
       <c r="H15" s="2" t="s">
         <v>77</v>
       </c>
@@ -4176,13 +4184,13 @@
       </c>
     </row>
     <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
       <c r="H16" s="2" t="s">
         <v>67</v>
       </c>
@@ -4203,15 +4211,15 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="22" t="s">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="17" t="s">
         <v>91</v>
       </c>
       <c r="H17" s="2" t="s">
@@ -4234,13 +4242,13 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
       <c r="H18" s="2" t="s">
         <v>69</v>
       </c>
@@ -4261,13 +4269,13 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
       <c r="H19" s="2" t="s">
         <v>70</v>
       </c>
@@ -4288,25 +4296,25 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A20" s="16">
+      <c r="A20" s="13">
         <v>2</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="13" t="s">
         <v>103</v>
       </c>
       <c r="H20" s="2" t="s">
@@ -4329,13 +4337,13 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
       <c r="H21" s="2" t="s">
         <v>23</v>
       </c>
@@ -4356,13 +4364,13 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
       <c r="H22" s="2" t="s">
         <v>24</v>
       </c>
@@ -4383,13 +4391,13 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
       <c r="H23" s="2" t="s">
         <v>25</v>
       </c>
@@ -4410,15 +4418,15 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17" t="s">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="G24" s="17"/>
+      <c r="G24" s="14"/>
       <c r="H24" s="3" t="s">
         <v>26</v>
       </c>
@@ -4439,13 +4447,13 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
       <c r="H25" s="4" t="s">
         <v>27</v>
       </c>
@@ -4466,13 +4474,13 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
       <c r="H26" s="4" t="s">
         <v>28</v>
       </c>
@@ -4493,25 +4501,25 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A27" s="16">
+      <c r="A27" s="13">
         <v>3</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="F27" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G27" s="16" t="s">
+      <c r="G27" s="13" t="s">
         <v>104</v>
       </c>
       <c r="H27" s="2" t="s">
@@ -4534,13 +4542,13 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
       <c r="H28" s="2" t="s">
         <v>23</v>
       </c>
@@ -4561,13 +4569,13 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
       <c r="H29" s="2" t="s">
         <v>24</v>
       </c>
@@ -4588,15 +4596,15 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17" t="s">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="G30" s="17"/>
+      <c r="G30" s="14"/>
       <c r="H30" s="2" t="s">
         <v>25</v>
       </c>
@@ -4617,13 +4625,13 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
       <c r="H31" s="3" t="s">
         <v>26</v>
       </c>
@@ -4644,13 +4652,13 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17" t="s">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14" t="s">
         <v>105</v>
       </c>
       <c r="H32" s="4" t="s">
@@ -4673,13 +4681,13 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
       <c r="H33" s="4" t="s">
         <v>28</v>
       </c>
@@ -4700,25 +4708,25 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A34" s="16">
+      <c r="A34" s="13">
         <v>4</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F34" s="16" t="s">
+      <c r="F34" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="G34" s="16" t="s">
+      <c r="G34" s="13" t="s">
         <v>106</v>
       </c>
       <c r="H34" s="2" t="s">
@@ -4741,13 +4749,13 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
       <c r="H35" s="2" t="s">
         <v>23</v>
       </c>
@@ -4768,15 +4776,15 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17" t="s">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G36" s="17"/>
+      <c r="G36" s="14"/>
       <c r="H36" s="2" t="s">
         <v>24</v>
       </c>
@@ -4797,15 +4805,13 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17" t="s">
-        <v>104</v>
-      </c>
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
       <c r="H37" s="2" t="s">
         <v>25</v>
       </c>
@@ -4826,15 +4832,15 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17" t="s">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="G38" s="17"/>
+      <c r="G38" s="14"/>
       <c r="H38" s="3" t="s">
         <v>26</v>
       </c>
@@ -4855,13 +4861,13 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
       <c r="H39" s="4" t="s">
         <v>27</v>
       </c>
@@ -4882,13 +4888,13 @@
       </c>
     </row>
     <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
       <c r="H40" s="4" t="s">
         <v>28</v>
       </c>
@@ -4909,25 +4915,25 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A41" s="16">
+      <c r="A41" s="13">
         <v>5</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F41" s="16" t="s">
+      <c r="F41" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="G41" s="16" t="s">
+      <c r="G41" s="13" t="s">
         <v>106</v>
       </c>
       <c r="H41" s="2" t="s">
@@ -4950,13 +4956,13 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
       <c r="H42" s="2" t="s">
         <v>23</v>
       </c>
@@ -4977,13 +4983,13 @@
       </c>
     </row>
     <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A43" s="17"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
       <c r="H43" s="2" t="s">
         <v>24</v>
       </c>
@@ -5004,13 +5010,13 @@
       </c>
     </row>
     <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A44" s="17"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17" t="s">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14" t="s">
         <v>103</v>
       </c>
       <c r="H44" s="2" t="s">
@@ -5033,13 +5039,13 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A45" s="17"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
       <c r="H45" s="3" t="s">
         <v>26</v>
       </c>
@@ -5060,13 +5066,13 @@
       </c>
     </row>
     <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A46" s="17"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17" t="s">
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14" t="s">
         <v>105</v>
       </c>
       <c r="H46" s="4" t="s">
@@ -5089,13 +5095,13 @@
       </c>
     </row>
     <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A47" s="18"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
       <c r="H47" s="4" t="s">
         <v>28</v>
       </c>
@@ -5116,25 +5122,25 @@
       </c>
     </row>
     <row r="48" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A48" s="16">
+      <c r="A48" s="13">
         <v>6</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="D48" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F48" s="16" t="s">
+      <c r="F48" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G48" s="16"/>
+      <c r="G48" s="13"/>
       <c r="H48" s="2" t="s">
         <v>32</v>
       </c>
@@ -5155,13 +5161,13 @@
       </c>
     </row>
     <row r="49" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A49" s="17"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
       <c r="H49" s="2" t="s">
         <v>33</v>
       </c>
@@ -5182,13 +5188,13 @@
       </c>
     </row>
     <row r="50" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A50" s="17"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
       <c r="H50" s="2" t="s">
         <v>34</v>
       </c>
@@ -5209,15 +5215,15 @@
       </c>
     </row>
     <row r="51" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A51" s="17"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17" t="s">
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="G51" s="17"/>
+      <c r="G51" s="14"/>
       <c r="H51" s="2" t="s">
         <v>35</v>
       </c>
@@ -5238,13 +5244,13 @@
       </c>
     </row>
     <row r="52" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A52" s="17"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
       <c r="H52" s="2" t="s">
         <v>36</v>
       </c>
@@ -5265,13 +5271,13 @@
       </c>
     </row>
     <row r="53" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
       <c r="H53" s="2" t="s">
         <v>37</v>
       </c>
@@ -5292,15 +5298,17 @@
       </c>
     </row>
     <row r="54" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A54" s="17"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17" t="s">
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="G54" s="17"/>
+      <c r="G54" s="14" t="s">
+        <v>110</v>
+      </c>
       <c r="H54" s="2" t="s">
         <v>38</v>
       </c>
@@ -5321,13 +5329,13 @@
       </c>
     </row>
     <row r="55" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A55" s="17"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
       <c r="H55" s="2" t="s">
         <v>39</v>
       </c>
@@ -5348,13 +5356,13 @@
       </c>
     </row>
     <row r="56" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A56" s="17"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
       <c r="H56" s="2" t="s">
         <v>40</v>
       </c>
@@ -5375,13 +5383,15 @@
       </c>
     </row>
     <row r="57" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A57" s="17"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14" t="s">
+        <v>111</v>
+      </c>
       <c r="H57" s="4" t="s">
         <v>41</v>
       </c>
@@ -5402,13 +5412,13 @@
       </c>
     </row>
     <row r="58" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A58" s="17"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
       <c r="H58" s="4" t="s">
         <v>42</v>
       </c>
@@ -5429,13 +5439,13 @@
       </c>
     </row>
     <row r="59" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A59" s="18"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
       <c r="H59" s="4" t="s">
         <v>43</v>
       </c>
@@ -5456,25 +5466,25 @@
       </c>
     </row>
     <row r="60" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A60" s="16">
+      <c r="A60" s="13">
         <v>7</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C60" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D60" s="16" t="s">
+      <c r="D60" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F60" s="16" t="s">
+      <c r="F60" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G60" s="19" t="s">
+      <c r="G60" s="21" t="s">
         <v>104</v>
       </c>
       <c r="H60" s="4" t="s">
@@ -5497,13 +5507,13 @@
       </c>
     </row>
     <row r="61" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A61" s="17"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="20"/>
+      <c r="A61" s="14"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="22"/>
       <c r="H61" s="4" t="s">
         <v>45</v>
       </c>
@@ -5524,13 +5534,13 @@
       </c>
     </row>
     <row r="62" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A62" s="17"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="20"/>
+      <c r="A62" s="14"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="22"/>
       <c r="H62" s="4" t="s">
         <v>46</v>
       </c>
@@ -5551,13 +5561,13 @@
       </c>
     </row>
     <row r="63" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A63" s="17"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="20"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="22"/>
       <c r="H63" s="4" t="s">
         <v>47</v>
       </c>
@@ -5578,15 +5588,17 @@
       </c>
     </row>
     <row r="64" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A64" s="17"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17" t="s">
+      <c r="A64" s="14"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="G64" s="20"/>
+      <c r="G64" s="14" t="s">
+        <v>106</v>
+      </c>
       <c r="H64" s="4" t="s">
         <v>48</v>
       </c>
@@ -5607,13 +5619,13 @@
       </c>
     </row>
     <row r="65" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A65" s="17"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="20"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
       <c r="H65" s="4" t="s">
         <v>49</v>
       </c>
@@ -5634,15 +5646,13 @@
       </c>
     </row>
     <row r="66" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A66" s="17"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17" t="s">
-        <v>106</v>
-      </c>
+      <c r="A66" s="14"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
       <c r="H66" s="4" t="s">
         <v>50</v>
       </c>
@@ -5663,13 +5673,13 @@
       </c>
     </row>
     <row r="67" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A67" s="17"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
+      <c r="A67" s="14"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
       <c r="H67" s="4" t="s">
         <v>51</v>
       </c>
@@ -5690,15 +5700,15 @@
       </c>
     </row>
     <row r="68" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A68" s="17"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17" t="s">
+      <c r="A68" s="14"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="G68" s="17"/>
+      <c r="G68" s="14"/>
       <c r="H68" s="4" t="s">
         <v>52</v>
       </c>
@@ -5719,13 +5729,13 @@
       </c>
     </row>
     <row r="69" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A69" s="18"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
+      <c r="A69" s="15"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
       <c r="H69" s="4" t="s">
         <v>53</v>
       </c>
@@ -5746,25 +5756,25 @@
       </c>
     </row>
     <row r="70" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A70" s="13">
+      <c r="A70" s="18">
         <v>8</v>
       </c>
-      <c r="B70" s="13" t="s">
+      <c r="B70" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C70" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="D70" s="13" t="s">
+      <c r="D70" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="E70" s="13" t="s">
+      <c r="E70" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F70" s="13" t="s">
+      <c r="F70" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="G70" s="13" t="s">
+      <c r="G70" s="18" t="s">
         <v>103</v>
       </c>
       <c r="H70" s="6" t="s">
@@ -5787,13 +5797,13 @@
       </c>
     </row>
     <row r="71" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A71" s="14"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
+      <c r="A71" s="19"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
       <c r="H71" s="4" t="s">
         <v>45</v>
       </c>
@@ -5814,13 +5824,13 @@
       </c>
     </row>
     <row r="72" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A72" s="14"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
+      <c r="A72" s="19"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
       <c r="H72" s="4" t="s">
         <v>46</v>
       </c>
@@ -5841,13 +5851,13 @@
       </c>
     </row>
     <row r="73" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A73" s="14"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
+      <c r="A73" s="19"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
       <c r="H73" s="4" t="s">
         <v>47</v>
       </c>
@@ -5868,13 +5878,13 @@
       </c>
     </row>
     <row r="74" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A74" s="14"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
+      <c r="A74" s="19"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19"/>
       <c r="H74" s="4" t="s">
         <v>48</v>
       </c>
@@ -5895,15 +5905,17 @@
       </c>
     </row>
     <row r="75" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A75" s="14"/>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14" t="s">
+      <c r="A75" s="19"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="G75" s="14"/>
+      <c r="G75" s="19" t="s">
+        <v>105</v>
+      </c>
       <c r="H75" s="4" t="s">
         <v>49</v>
       </c>
@@ -5924,13 +5936,13 @@
       </c>
     </row>
     <row r="76" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A76" s="14"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="14"/>
+      <c r="A76" s="19"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
       <c r="H76" s="4" t="s">
         <v>50</v>
       </c>
@@ -5951,15 +5963,13 @@
       </c>
     </row>
     <row r="77" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A77" s="14"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="14" t="s">
-        <v>105</v>
-      </c>
+      <c r="A77" s="19"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="19"/>
       <c r="H77" s="4" t="s">
         <v>51</v>
       </c>
@@ -5980,13 +5990,13 @@
       </c>
     </row>
     <row r="78" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A78" s="14"/>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="14"/>
+      <c r="A78" s="19"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="19"/>
       <c r="H78" s="4" t="s">
         <v>52</v>
       </c>
@@ -6007,13 +6017,13 @@
       </c>
     </row>
     <row r="79" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A79" s="15"/>
-      <c r="B79" s="15"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
+      <c r="A79" s="20"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="20"/>
       <c r="H79" s="4" t="s">
         <v>53</v>
       </c>
@@ -6034,25 +6044,25 @@
       </c>
     </row>
     <row r="80" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A80" s="16">
+      <c r="A80" s="13">
         <v>9</v>
       </c>
-      <c r="B80" s="16" t="s">
+      <c r="B80" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C80" s="16" t="s">
+      <c r="C80" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D80" s="16" t="s">
+      <c r="D80" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="E80" s="16" t="s">
+      <c r="E80" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F80" s="16" t="s">
+      <c r="F80" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="G80" s="16" t="s">
+      <c r="G80" s="13" t="s">
         <v>103</v>
       </c>
       <c r="H80" s="4" t="s">
@@ -6075,13 +6085,13 @@
       </c>
     </row>
     <row r="81" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A81" s="17"/>
-      <c r="B81" s="17"/>
-      <c r="C81" s="17"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="17"/>
-      <c r="F81" s="17"/>
-      <c r="G81" s="17"/>
+      <c r="A81" s="14"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
       <c r="H81" s="4" t="s">
         <v>54</v>
       </c>
@@ -6102,13 +6112,13 @@
       </c>
     </row>
     <row r="82" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A82" s="17"/>
-      <c r="B82" s="17"/>
-      <c r="C82" s="17"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="17"/>
-      <c r="G82" s="17"/>
+      <c r="A82" s="14"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="14"/>
       <c r="H82" s="4" t="s">
         <v>55</v>
       </c>
@@ -6129,13 +6139,13 @@
       </c>
     </row>
     <row r="83" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A83" s="17"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="17"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="17"/>
-      <c r="G83" s="17"/>
+      <c r="A83" s="14"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="14"/>
       <c r="H83" s="2" t="s">
         <v>56</v>
       </c>
@@ -6156,13 +6166,13 @@
       </c>
     </row>
     <row r="84" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A84" s="17"/>
-      <c r="B84" s="17"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17"/>
+      <c r="A84" s="14"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
       <c r="H84" s="2" t="s">
         <v>57</v>
       </c>
@@ -6183,15 +6193,15 @@
       </c>
     </row>
     <row r="85" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A85" s="17"/>
-      <c r="B85" s="17"/>
-      <c r="C85" s="17"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="17"/>
-      <c r="F85" s="17" t="s">
+      <c r="A85" s="14"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G85" s="17"/>
+      <c r="G85" s="14"/>
       <c r="H85" s="2" t="s">
         <v>58</v>
       </c>
@@ -6212,13 +6222,13 @@
       </c>
     </row>
     <row r="86" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A86" s="17"/>
-      <c r="B86" s="17"/>
-      <c r="C86" s="17"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="17"/>
-      <c r="G86" s="17"/>
+      <c r="A86" s="14"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
       <c r="H86" s="2" t="s">
         <v>59</v>
       </c>
@@ -6239,13 +6249,13 @@
       </c>
     </row>
     <row r="87" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A87" s="17"/>
-      <c r="B87" s="17"/>
-      <c r="C87" s="17"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="17"/>
-      <c r="F87" s="17"/>
-      <c r="G87" s="17"/>
+      <c r="A87" s="14"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
       <c r="H87" s="2" t="s">
         <v>60</v>
       </c>
@@ -6266,13 +6276,13 @@
       </c>
     </row>
     <row r="88" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A88" s="17"/>
-      <c r="B88" s="17"/>
-      <c r="C88" s="17"/>
-      <c r="D88" s="17"/>
-      <c r="E88" s="17"/>
-      <c r="F88" s="17"/>
-      <c r="G88" s="17"/>
+      <c r="A88" s="14"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="14"/>
       <c r="H88" s="2" t="s">
         <v>61</v>
       </c>
@@ -6293,13 +6303,13 @@
       </c>
     </row>
     <row r="89" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A89" s="17"/>
-      <c r="B89" s="17"/>
-      <c r="C89" s="17"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="17"/>
-      <c r="F89" s="17"/>
-      <c r="G89" s="17" t="s">
+      <c r="A89" s="14"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="14" t="s">
         <v>106</v>
       </c>
       <c r="H89" s="2" t="s">
@@ -6322,13 +6332,13 @@
       </c>
     </row>
     <row r="90" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A90" s="17"/>
-      <c r="B90" s="17"/>
-      <c r="C90" s="17"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="17"/>
-      <c r="F90" s="17"/>
-      <c r="G90" s="17"/>
+      <c r="A90" s="14"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="14"/>
       <c r="H90" s="2" t="s">
         <v>63</v>
       </c>
@@ -6349,13 +6359,13 @@
       </c>
     </row>
     <row r="91" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A91" s="18"/>
-      <c r="B91" s="18"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="18"/>
-      <c r="F91" s="18"/>
-      <c r="G91" s="18"/>
+      <c r="A91" s="15"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="15"/>
       <c r="H91" s="2" t="s">
         <v>64</v>
       </c>
@@ -6376,25 +6386,25 @@
       </c>
     </row>
     <row r="92" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A92" s="16">
+      <c r="A92" s="13">
         <v>10</v>
       </c>
-      <c r="B92" s="13" t="s">
+      <c r="B92" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C92" s="13" t="s">
+      <c r="C92" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="D92" s="13" t="s">
+      <c r="D92" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="E92" s="13" t="s">
+      <c r="E92" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F92" s="13" t="s">
+      <c r="F92" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="G92" s="13" t="s">
+      <c r="G92" s="18" t="s">
         <v>105</v>
       </c>
       <c r="H92" s="5" t="s">
@@ -6417,13 +6427,13 @@
       </c>
     </row>
     <row r="93" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A93" s="17"/>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c r="G93" s="14"/>
+      <c r="A93" s="14"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="19"/>
+      <c r="G93" s="19"/>
       <c r="H93" s="2" t="s">
         <v>45</v>
       </c>
@@ -6444,13 +6454,13 @@
       </c>
     </row>
     <row r="94" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A94" s="17"/>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c r="G94" s="14"/>
+      <c r="A94" s="14"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="19"/>
       <c r="H94" s="2" t="s">
         <v>34</v>
       </c>
@@ -6471,13 +6481,13 @@
       </c>
     </row>
     <row r="95" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A95" s="17"/>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c r="G95" s="14"/>
+      <c r="A95" s="14"/>
+      <c r="B95" s="19"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="19"/>
+      <c r="G95" s="19"/>
       <c r="H95" s="2" t="s">
         <v>35</v>
       </c>
@@ -6498,13 +6508,13 @@
       </c>
     </row>
     <row r="96" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A96" s="17"/>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c r="G96" s="14"/>
+      <c r="A96" s="14"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="19"/>
+      <c r="G96" s="19"/>
       <c r="H96" s="2" t="s">
         <v>36</v>
       </c>
@@ -6525,13 +6535,13 @@
       </c>
     </row>
     <row r="97" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A97" s="17"/>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c r="G97" s="14"/>
+      <c r="A97" s="14"/>
+      <c r="B97" s="19"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="19"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="19"/>
+      <c r="G97" s="19"/>
       <c r="H97" s="2" t="s">
         <v>37</v>
       </c>
@@ -6552,13 +6562,13 @@
       </c>
     </row>
     <row r="98" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A98" s="17"/>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c r="G98" s="14"/>
+      <c r="A98" s="14"/>
+      <c r="B98" s="19"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="19"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="19"/>
+      <c r="G98" s="19"/>
       <c r="H98" s="2" t="s">
         <v>38</v>
       </c>
@@ -6579,15 +6589,15 @@
       </c>
     </row>
     <row r="99" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A99" s="17"/>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14" t="s">
+      <c r="A99" s="14"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="19"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="G99" s="14"/>
+      <c r="G99" s="19"/>
       <c r="H99" s="2" t="s">
         <v>39</v>
       </c>
@@ -6608,13 +6618,13 @@
       </c>
     </row>
     <row r="100" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A100" s="17"/>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c r="G100" s="14"/>
+      <c r="A100" s="14"/>
+      <c r="B100" s="19"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="19"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="19"/>
+      <c r="G100" s="19"/>
       <c r="H100" s="2" t="s">
         <v>40</v>
       </c>
@@ -6635,15 +6645,17 @@
       </c>
     </row>
     <row r="101" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A101" s="17"/>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14" t="s">
+      <c r="A101" s="14"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
+      <c r="D101" s="19"/>
+      <c r="E101" s="19"/>
+      <c r="F101" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="G101" s="14"/>
+      <c r="G101" s="19" t="s">
+        <v>106</v>
+      </c>
       <c r="H101" s="4" t="s">
         <v>41</v>
       </c>
@@ -6664,15 +6676,13 @@
       </c>
     </row>
     <row r="102" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A102" s="17"/>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c r="G102" s="14" t="s">
-        <v>106</v>
-      </c>
+      <c r="A102" s="14"/>
+      <c r="B102" s="19"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="19"/>
+      <c r="G102" s="19"/>
       <c r="H102" s="4" t="s">
         <v>42</v>
       </c>
@@ -6693,13 +6703,13 @@
       </c>
     </row>
     <row r="103" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A103" s="17"/>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c r="G103" s="14"/>
+      <c r="A103" s="14"/>
+      <c r="B103" s="19"/>
+      <c r="C103" s="19"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="19"/>
+      <c r="G103" s="19"/>
       <c r="H103" s="4" t="s">
         <v>43</v>
       </c>
@@ -6720,13 +6730,13 @@
       </c>
     </row>
     <row r="104" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A104" s="17"/>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c r="G104" s="14"/>
+      <c r="A104" s="14"/>
+      <c r="B104" s="19"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="19"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="19"/>
+      <c r="G104" s="19"/>
       <c r="H104" s="4" t="s">
         <v>65</v>
       </c>
@@ -6747,13 +6757,13 @@
       </c>
     </row>
     <row r="105" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A105" s="18"/>
-      <c r="B105" s="15"/>
-      <c r="C105" s="15"/>
-      <c r="D105" s="15"/>
-      <c r="E105" s="15"/>
-      <c r="F105" s="15"/>
-      <c r="G105" s="15"/>
+      <c r="A105" s="15"/>
+      <c r="B105" s="20"/>
+      <c r="C105" s="20"/>
+      <c r="D105" s="20"/>
+      <c r="E105" s="20"/>
+      <c r="F105" s="20"/>
+      <c r="G105" s="20"/>
       <c r="H105" s="4" t="s">
         <v>66</v>
       </c>
@@ -6774,25 +6784,25 @@
       </c>
     </row>
     <row r="106" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A106" s="16">
+      <c r="A106" s="13">
         <v>11</v>
       </c>
-      <c r="B106" s="13" t="s">
+      <c r="B106" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C106" s="13" t="s">
+      <c r="C106" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="D106" s="13" t="s">
+      <c r="D106" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="E106" s="13" t="s">
+      <c r="E106" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F106" s="13" t="s">
+      <c r="F106" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="G106" s="13" t="s">
+      <c r="G106" s="18" t="s">
         <v>104</v>
       </c>
       <c r="H106" s="6" t="s">
@@ -6815,13 +6825,13 @@
       </c>
     </row>
     <row r="107" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A107" s="17"/>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c r="G107" s="14"/>
+      <c r="A107" s="14"/>
+      <c r="B107" s="19"/>
+      <c r="C107" s="19"/>
+      <c r="D107" s="19"/>
+      <c r="E107" s="19"/>
+      <c r="F107" s="19"/>
+      <c r="G107" s="19"/>
       <c r="H107" s="4" t="s">
         <v>45</v>
       </c>
@@ -6842,13 +6852,13 @@
       </c>
     </row>
     <row r="108" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A108" s="17"/>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c r="G108" s="14"/>
+      <c r="A108" s="14"/>
+      <c r="B108" s="19"/>
+      <c r="C108" s="19"/>
+      <c r="D108" s="19"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="19"/>
+      <c r="G108" s="19"/>
       <c r="H108" s="4" t="s">
         <v>46</v>
       </c>
@@ -6869,13 +6879,13 @@
       </c>
     </row>
     <row r="109" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A109" s="17"/>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c r="G109" s="14" t="s">
+      <c r="A109" s="14"/>
+      <c r="B109" s="19"/>
+      <c r="C109" s="19"/>
+      <c r="D109" s="19"/>
+      <c r="E109" s="19"/>
+      <c r="F109" s="19"/>
+      <c r="G109" s="19" t="s">
         <v>103</v>
       </c>
       <c r="H109" s="4" t="s">
@@ -6898,13 +6908,13 @@
       </c>
     </row>
     <row r="110" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A110" s="17"/>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c r="G110" s="14"/>
+      <c r="A110" s="14"/>
+      <c r="B110" s="19"/>
+      <c r="C110" s="19"/>
+      <c r="D110" s="19"/>
+      <c r="E110" s="19"/>
+      <c r="F110" s="19"/>
+      <c r="G110" s="19"/>
       <c r="H110" s="4" t="s">
         <v>48</v>
       </c>
@@ -6925,13 +6935,13 @@
       </c>
     </row>
     <row r="111" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A111" s="17"/>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c r="G111" s="14"/>
+      <c r="A111" s="14"/>
+      <c r="B111" s="19"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="19"/>
+      <c r="E111" s="19"/>
+      <c r="F111" s="19"/>
+      <c r="G111" s="19"/>
       <c r="H111" s="4" t="s">
         <v>49</v>
       </c>
@@ -6952,13 +6962,13 @@
       </c>
     </row>
     <row r="112" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A112" s="17"/>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c r="G112" s="14"/>
+      <c r="A112" s="14"/>
+      <c r="B112" s="19"/>
+      <c r="C112" s="19"/>
+      <c r="D112" s="19"/>
+      <c r="E112" s="19"/>
+      <c r="F112" s="19"/>
+      <c r="G112" s="19"/>
       <c r="H112" s="4" t="s">
         <v>50</v>
       </c>
@@ -6979,13 +6989,13 @@
       </c>
     </row>
     <row r="113" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A113" s="17"/>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c r="G113" s="14"/>
+      <c r="A113" s="14"/>
+      <c r="B113" s="19"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="19"/>
+      <c r="E113" s="19"/>
+      <c r="F113" s="19"/>
+      <c r="G113" s="19"/>
       <c r="H113" s="4" t="s">
         <v>51</v>
       </c>
@@ -7006,15 +7016,15 @@
       </c>
     </row>
     <row r="114" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A114" s="17"/>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14" t="s">
+      <c r="A114" s="14"/>
+      <c r="B114" s="19"/>
+      <c r="C114" s="19"/>
+      <c r="D114" s="19"/>
+      <c r="E114" s="19"/>
+      <c r="F114" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="G114" s="14" t="s">
+      <c r="G114" s="19" t="s">
         <v>106</v>
       </c>
       <c r="H114" s="4" t="s">
@@ -7037,13 +7047,13 @@
       </c>
     </row>
     <row r="115" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A115" s="18"/>
-      <c r="B115" s="15"/>
-      <c r="C115" s="15"/>
-      <c r="D115" s="15"/>
-      <c r="E115" s="15"/>
-      <c r="F115" s="15"/>
-      <c r="G115" s="15"/>
+      <c r="A115" s="15"/>
+      <c r="B115" s="20"/>
+      <c r="C115" s="20"/>
+      <c r="D115" s="20"/>
+      <c r="E115" s="20"/>
+      <c r="F115" s="20"/>
+      <c r="G115" s="20"/>
       <c r="H115" s="4" t="s">
         <v>53</v>
       </c>
@@ -7064,25 +7074,25 @@
       </c>
     </row>
     <row r="116" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A116" s="16">
+      <c r="A116" s="13">
         <v>12</v>
       </c>
-      <c r="B116" s="13" t="s">
+      <c r="B116" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C116" s="13" t="s">
+      <c r="C116" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="D116" s="13" t="s">
+      <c r="D116" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="E116" s="13" t="s">
+      <c r="E116" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F116" s="13" t="s">
+      <c r="F116" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="G116" s="13" t="s">
+      <c r="G116" s="18" t="s">
         <v>103</v>
       </c>
       <c r="H116" s="6" t="s">
@@ -7105,13 +7115,13 @@
       </c>
     </row>
     <row r="117" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A117" s="17"/>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c r="G117" s="14"/>
+      <c r="A117" s="14"/>
+      <c r="B117" s="19"/>
+      <c r="C117" s="19"/>
+      <c r="D117" s="19"/>
+      <c r="E117" s="19"/>
+      <c r="F117" s="19"/>
+      <c r="G117" s="19"/>
       <c r="H117" s="4" t="s">
         <v>45</v>
       </c>
@@ -7132,13 +7142,13 @@
       </c>
     </row>
     <row r="118" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A118" s="17"/>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c r="G118" s="14"/>
+      <c r="A118" s="14"/>
+      <c r="B118" s="19"/>
+      <c r="C118" s="19"/>
+      <c r="D118" s="19"/>
+      <c r="E118" s="19"/>
+      <c r="F118" s="19"/>
+      <c r="G118" s="19"/>
       <c r="H118" s="4" t="s">
         <v>46</v>
       </c>
@@ -7159,13 +7169,13 @@
       </c>
     </row>
     <row r="119" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A119" s="17"/>
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-      <c r="G119" s="14"/>
+      <c r="A119" s="14"/>
+      <c r="B119" s="19"/>
+      <c r="C119" s="19"/>
+      <c r="D119" s="19"/>
+      <c r="E119" s="19"/>
+      <c r="F119" s="19"/>
+      <c r="G119" s="19"/>
       <c r="H119" s="4" t="s">
         <v>47</v>
       </c>
@@ -7186,13 +7196,13 @@
       </c>
     </row>
     <row r="120" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A120" s="17"/>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c r="G120" s="14"/>
+      <c r="A120" s="14"/>
+      <c r="B120" s="19"/>
+      <c r="C120" s="19"/>
+      <c r="D120" s="19"/>
+      <c r="E120" s="19"/>
+      <c r="F120" s="19"/>
+      <c r="G120" s="19"/>
       <c r="H120" s="4" t="s">
         <v>48</v>
       </c>
@@ -7213,15 +7223,17 @@
       </c>
     </row>
     <row r="121" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A121" s="17"/>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14" t="s">
+      <c r="A121" s="14"/>
+      <c r="B121" s="19"/>
+      <c r="C121" s="19"/>
+      <c r="D121" s="19"/>
+      <c r="E121" s="19"/>
+      <c r="F121" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="G121" s="14"/>
+      <c r="G121" s="19" t="s">
+        <v>105</v>
+      </c>
       <c r="H121" s="4" t="s">
         <v>49</v>
       </c>
@@ -7242,15 +7254,13 @@
       </c>
     </row>
     <row r="122" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A122" s="17"/>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c r="G122" s="14" t="s">
-        <v>105</v>
-      </c>
+      <c r="A122" s="14"/>
+      <c r="B122" s="19"/>
+      <c r="C122" s="19"/>
+      <c r="D122" s="19"/>
+      <c r="E122" s="19"/>
+      <c r="F122" s="19"/>
+      <c r="G122" s="19"/>
       <c r="H122" s="4" t="s">
         <v>50</v>
       </c>
@@ -7271,13 +7281,13 @@
       </c>
     </row>
     <row r="123" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A123" s="17"/>
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c r="G123" s="14"/>
+      <c r="A123" s="14"/>
+      <c r="B123" s="19"/>
+      <c r="C123" s="19"/>
+      <c r="D123" s="19"/>
+      <c r="E123" s="19"/>
+      <c r="F123" s="19"/>
+      <c r="G123" s="19"/>
       <c r="H123" s="4" t="s">
         <v>51</v>
       </c>
@@ -7298,13 +7308,13 @@
       </c>
     </row>
     <row r="124" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A124" s="17"/>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c r="G124" s="14"/>
+      <c r="A124" s="14"/>
+      <c r="B124" s="19"/>
+      <c r="C124" s="19"/>
+      <c r="D124" s="19"/>
+      <c r="E124" s="19"/>
+      <c r="F124" s="19"/>
+      <c r="G124" s="19"/>
       <c r="H124" s="4" t="s">
         <v>52</v>
       </c>
@@ -7325,13 +7335,13 @@
       </c>
     </row>
     <row r="125" spans="1:13" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A125" s="18"/>
-      <c r="B125" s="15"/>
-      <c r="C125" s="15"/>
-      <c r="D125" s="15"/>
-      <c r="E125" s="15"/>
-      <c r="F125" s="15"/>
-      <c r="G125" s="15"/>
+      <c r="A125" s="15"/>
+      <c r="B125" s="20"/>
+      <c r="C125" s="20"/>
+      <c r="D125" s="20"/>
+      <c r="E125" s="20"/>
+      <c r="F125" s="20"/>
+      <c r="G125" s="20"/>
       <c r="H125" s="4" t="s">
         <v>53</v>
       </c>
@@ -7352,62 +7362,54 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="115">
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:B26"/>
-    <mergeCell ref="C20:C26"/>
-    <mergeCell ref="D20:D26"/>
-    <mergeCell ref="E20:E26"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="B3:B19"/>
-    <mergeCell ref="C3:C19"/>
-    <mergeCell ref="D3:D19"/>
-    <mergeCell ref="E3:E19"/>
-    <mergeCell ref="A3:A19"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="G7:G13"/>
-    <mergeCell ref="F3:F16"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G20:G26"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B34:B40"/>
-    <mergeCell ref="C34:C40"/>
-    <mergeCell ref="D34:D40"/>
-    <mergeCell ref="E34:E40"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:B33"/>
-    <mergeCell ref="C27:C33"/>
-    <mergeCell ref="D27:D33"/>
-    <mergeCell ref="E27:E33"/>
-    <mergeCell ref="E41:E47"/>
-    <mergeCell ref="A48:A59"/>
-    <mergeCell ref="B48:B59"/>
-    <mergeCell ref="C48:C59"/>
-    <mergeCell ref="D48:D59"/>
-    <mergeCell ref="E48:E59"/>
-    <mergeCell ref="C41:C47"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:B47"/>
-    <mergeCell ref="D41:D47"/>
-    <mergeCell ref="C80:C91"/>
-    <mergeCell ref="D80:D91"/>
-    <mergeCell ref="E80:E91"/>
-    <mergeCell ref="A70:A79"/>
-    <mergeCell ref="B70:B79"/>
-    <mergeCell ref="C70:C79"/>
-    <mergeCell ref="D70:D79"/>
-    <mergeCell ref="E70:E79"/>
-    <mergeCell ref="A60:A69"/>
-    <mergeCell ref="B60:B69"/>
-    <mergeCell ref="C60:C69"/>
-    <mergeCell ref="D60:D69"/>
-    <mergeCell ref="E60:E69"/>
+  <mergeCells count="123">
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="F116:F120"/>
+    <mergeCell ref="F121:F125"/>
+    <mergeCell ref="F106:F113"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="G106:G108"/>
+    <mergeCell ref="G109:G113"/>
+    <mergeCell ref="G114:G115"/>
+    <mergeCell ref="G116:G120"/>
+    <mergeCell ref="G121:G125"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="F101:F105"/>
+    <mergeCell ref="F80:F84"/>
+    <mergeCell ref="F85:F91"/>
+    <mergeCell ref="G89:G91"/>
+    <mergeCell ref="F92:F98"/>
+    <mergeCell ref="G85:G88"/>
+    <mergeCell ref="G80:G84"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="G101:G105"/>
+    <mergeCell ref="G92:G98"/>
+    <mergeCell ref="F70:F74"/>
+    <mergeCell ref="F75:F79"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="F54:F59"/>
+    <mergeCell ref="F60:F63"/>
+    <mergeCell ref="F64:F67"/>
+    <mergeCell ref="G60:G63"/>
+    <mergeCell ref="G64:G67"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="G70:G74"/>
+    <mergeCell ref="G75:G79"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="F68:F69"/>
     <mergeCell ref="F27:F29"/>
-    <mergeCell ref="G27:G31"/>
     <mergeCell ref="F30:F33"/>
     <mergeCell ref="G32:G33"/>
     <mergeCell ref="A116:A125"/>
@@ -7430,44 +7432,60 @@
     <mergeCell ref="F41:F47"/>
     <mergeCell ref="G41:G43"/>
     <mergeCell ref="G44:G45"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="G37:G40"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G60:G65"/>
-    <mergeCell ref="G66:G69"/>
-    <mergeCell ref="F70:F74"/>
-    <mergeCell ref="F75:F79"/>
-    <mergeCell ref="G70:G76"/>
-    <mergeCell ref="G77:G79"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="F54:F59"/>
-    <mergeCell ref="G48:G59"/>
-    <mergeCell ref="F60:F63"/>
-    <mergeCell ref="F64:F67"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="F101:F105"/>
-    <mergeCell ref="G92:G96"/>
-    <mergeCell ref="G97:G101"/>
-    <mergeCell ref="G102:G105"/>
-    <mergeCell ref="F80:F84"/>
-    <mergeCell ref="F85:F91"/>
-    <mergeCell ref="G80:G88"/>
-    <mergeCell ref="G89:G91"/>
-    <mergeCell ref="F92:F98"/>
-    <mergeCell ref="F116:F120"/>
-    <mergeCell ref="F121:F125"/>
-    <mergeCell ref="G116:G121"/>
-    <mergeCell ref="G122:G125"/>
-    <mergeCell ref="F106:F113"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="G106:G108"/>
-    <mergeCell ref="G109:G113"/>
-    <mergeCell ref="G114:G115"/>
+    <mergeCell ref="C80:C91"/>
+    <mergeCell ref="D80:D91"/>
+    <mergeCell ref="E80:E91"/>
+    <mergeCell ref="A70:A79"/>
+    <mergeCell ref="B70:B79"/>
+    <mergeCell ref="C70:C79"/>
+    <mergeCell ref="D70:D79"/>
+    <mergeCell ref="E70:E79"/>
+    <mergeCell ref="A60:A69"/>
+    <mergeCell ref="B60:B69"/>
+    <mergeCell ref="C60:C69"/>
+    <mergeCell ref="D60:D69"/>
+    <mergeCell ref="E60:E69"/>
+    <mergeCell ref="E41:E47"/>
+    <mergeCell ref="A48:A59"/>
+    <mergeCell ref="B48:B59"/>
+    <mergeCell ref="C48:C59"/>
+    <mergeCell ref="D48:D59"/>
+    <mergeCell ref="E48:E59"/>
+    <mergeCell ref="C41:C47"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:B47"/>
+    <mergeCell ref="D41:D47"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B34:B40"/>
+    <mergeCell ref="C34:C40"/>
+    <mergeCell ref="D34:D40"/>
+    <mergeCell ref="E34:E40"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:B33"/>
+    <mergeCell ref="C27:C33"/>
+    <mergeCell ref="D27:D33"/>
+    <mergeCell ref="E27:E33"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:B26"/>
+    <mergeCell ref="C20:C26"/>
+    <mergeCell ref="D20:D26"/>
+    <mergeCell ref="E20:E26"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="B3:B19"/>
+    <mergeCell ref="C3:C19"/>
+    <mergeCell ref="D3:D19"/>
+    <mergeCell ref="E3:E19"/>
+    <mergeCell ref="A3:A19"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="G7:G13"/>
+    <mergeCell ref="F3:F16"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="G24:G26"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations count="1">
